--- a/Database.xlsx
+++ b/Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usarmywestpoint-my.sharepoint.com/personal/aaron_calhoun_westpoint_edu/Documents/All/Nuclear_Comparison_Program/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aaron.Calhoun\Documents\GitHub\Nuclear-Reactor-Database-Dataframe-Anlaysis-Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_EAD89EB7467146EF667814154405963894F21B7C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30AA1836-E221-4BE9-9119-A02490405B2C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62A353F5-4B70-44EE-9D23-DA0D075F05D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,54 +25,15 @@
     <t>Reactor</t>
   </si>
   <si>
-    <t>Plannt or SMNR</t>
-  </si>
-  <si>
     <t>Generation</t>
   </si>
   <si>
-    <t>Operational Status</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
-    <t>Priamry Coolant</t>
-  </si>
-  <si>
-    <t>Primary Moderator</t>
-  </si>
-  <si>
-    <t>Primary Company/Group</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Thermodynamic Cycle</t>
-  </si>
-  <si>
-    <t>Decade of First Use (Can be predicted)</t>
-  </si>
-  <si>
-    <t>Operational Life (years)</t>
-  </si>
-  <si>
-    <t>Thermal Output (MWt)</t>
-  </si>
-  <si>
-    <t>Electric Output net (MWe)</t>
-  </si>
-  <si>
-    <t>Fuel Cycle (months)</t>
-  </si>
-  <si>
-    <t>Space Occupied (hecta)</t>
-  </si>
-  <si>
-    <t>Cost (per kW)</t>
-  </si>
-  <si>
     <t>EGP-6</t>
   </si>
   <si>
@@ -362,6 +323,45 @@
   </si>
   <si>
     <t>EU-ABWR</t>
+  </si>
+  <si>
+    <t>Plant_or_SMNR</t>
+  </si>
+  <si>
+    <t>Operational_Status</t>
+  </si>
+  <si>
+    <t>Primary_Coolant</t>
+  </si>
+  <si>
+    <t>Primary_Moderator</t>
+  </si>
+  <si>
+    <t>Primary_Company_or_Group</t>
+  </si>
+  <si>
+    <t>Thermodynamic_Cycle</t>
+  </si>
+  <si>
+    <t>Decade_of_First_Use</t>
+  </si>
+  <si>
+    <t>Operational_Life_years</t>
+  </si>
+  <si>
+    <t>Thermal_Output_MWt</t>
+  </si>
+  <si>
+    <t>Electric_Output_Net_MWe</t>
+  </si>
+  <si>
+    <t>Fuel_Cycle_months</t>
+  </si>
+  <si>
+    <t>Space_Occupied_(hecta)</t>
+  </si>
+  <si>
+    <t>Cost_(per kW)</t>
   </si>
 </sst>
 </file>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:V1048576"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -783,84 +783,84 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K2" s="1">
         <v>1970</v>
@@ -875,45 +875,45 @@
         <v>11</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1">
         <v>2010</v>
@@ -931,42 +931,42 @@
         <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1">
         <v>2010</v>
@@ -984,42 +984,42 @@
         <v>84</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1">
         <v>2020</v>
@@ -1034,45 +1034,45 @@
         <v>2</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1">
         <v>2020</v>
@@ -1090,42 +1090,42 @@
         <v>12</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K7" s="1">
         <v>2020</v>
@@ -1143,42 +1143,42 @@
         <v>14</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1">
         <v>2020</v>
@@ -1196,42 +1196,42 @@
         <v>24</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="F9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="I9" s="4" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1">
         <v>2020</v>
@@ -1249,42 +1249,42 @@
         <v>240</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K10" s="1">
         <v>2020</v>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="7">
         <v>2250</v>
@@ -1310,34 +1310,34 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1">
         <v>2020</v>
@@ -1358,39 +1358,39 @@
         <v>16</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1">
         <v>2020</v>
@@ -1408,42 +1408,42 @@
         <v>36</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K13" s="1">
         <v>2020</v>
@@ -1469,34 +1469,34 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1">
         <v>2010</v>
@@ -1514,42 +1514,42 @@
         <v>18</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K15" s="1">
         <v>2010</v>
@@ -1567,42 +1567,42 @@
         <v>18</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K16" s="1">
         <v>2020</v>
@@ -1620,48 +1620,48 @@
         <v>18</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M17" s="1">
         <v>4960</v>
@@ -1673,45 +1673,45 @@
         <v>18</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L18" s="1">
         <v>60</v>
@@ -1726,45 +1726,45 @@
         <v>24</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="I19" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L19" s="1">
         <v>60</v>
@@ -1779,98 +1779,98 @@
         <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>76</v>
-      </c>
       <c r="I20" s="4" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="O20" s="1">
         <v>18</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L21" s="1">
         <v>60</v>
@@ -1882,48 +1882,48 @@
         <v>740</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L22" s="1">
         <v>60</v>
@@ -1938,45 +1938,45 @@
         <v>18</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L23" s="1">
         <v>50</v>
@@ -1988,45 +1988,45 @@
         <v>800</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K24" s="1">
         <v>2010</v>
@@ -2044,42 +2044,42 @@
         <v>18</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="K25" s="1">
         <v>2020</v>
@@ -2097,42 +2097,42 @@
         <v>18</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K26" s="1">
         <v>2010</v>
@@ -2150,42 +2150,42 @@
         <v>24</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K27" s="1">
         <v>2020</v>
@@ -2203,45 +2203,45 @@
         <v>12</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L28" s="1">
         <v>60</v>
@@ -2256,45 +2256,45 @@
         <v>24</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L29" s="1">
         <v>60</v>
@@ -2309,45 +2309,45 @@
         <v>18</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q29" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="J30" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L30" s="1">
         <v>60</v>
@@ -2362,45 +2362,45 @@
         <v>12</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L31" s="1">
         <v>60</v>
@@ -2412,45 +2412,45 @@
         <v>1165</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K32" s="1">
         <v>1970</v>
@@ -2465,45 +2465,45 @@
         <v>440</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K33" s="1">
         <v>1980</v>
@@ -2521,42 +2521,42 @@
         <v>18</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K34" s="1">
         <v>2020</v>
@@ -2574,42 +2574,42 @@
         <v>12</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q34" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K35" s="1">
         <v>2020</v>
@@ -2627,42 +2627,42 @@
         <v>18</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K36" s="1">
         <v>2020</v>
@@ -2680,42 +2680,42 @@
         <v>18</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K37" s="1">
         <v>2020</v>
@@ -2733,42 +2733,42 @@
         <v>18</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q37" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K38" s="1">
         <v>2010</v>
@@ -2786,42 +2786,42 @@
         <v>12</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q38" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K39" s="1">
         <v>2000</v>
@@ -2836,48 +2836,48 @@
         <v>1358</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L40" s="1">
         <v>60</v>
@@ -2892,45 +2892,45 @@
         <v>24</v>
       </c>
       <c r="P40" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L41" s="1">
         <v>60</v>
@@ -2942,48 +2942,48 @@
         <v>1600</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="P41" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q41" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="L42" s="1">
         <v>60</v>
@@ -2998,10 +2998,10 @@
         <v>18</v>
       </c>
       <c r="P42" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q42" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
